--- a/frontend-cemos/public/assets/content/economia/1-economia-br/script/c_consolidado.xlsx
+++ b/frontend-cemos/public/assets/content/economia/1-economia-br/script/c_consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1881,6 +1881,1770 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Pág. 1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Relacione os tipos de bens de consumo às suas respectivas características.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>["Bens de consumo leves", "Bens de consumo duráveis", "Serviços"]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>["Oferecem utilidade por um longo período, como refrigeração ou transporte.", "Prestação de atividades intangíveis, como educação ou reparos.", "Consumidos rapidamente, como alimentos e vestuário."]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Os bens leves são consumidos rapidamente; os duráveis oferecem serviços por longo período (ex: geladeira, carro); serviços são atividades como corte de cabelo e educação.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Pág. 2, 4, 5</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Associe os autores e teorias econômicas aos seus principais postulados sobre o consumo.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>["Keynes (Lei Psicológica Fundamental)", "Ando e Modigliani (Ciclo de Vida)", "Milton Friedman (Renda Permanente)"]</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>["O consumo depende da renda média esperada ao longo da vida e não apenas da corrente.", "Indivíduos poupam quando jovens para manter o consumo na velhice.", "À medida que a renda aumenta, o consumo aumenta, mas não na mesma proporção."]</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>{"0": "2", "1": "1", "2": "0"}</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Keynes postula que o consumo aumenta com a renda, mas em menor magnitude; Ando-Modigliani focam na poupança durante a juventude para despoupança na velhice; Friedman divide a renda em permanente e transitória, focando na expectativa de longo prazo.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Pág. 6</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Correlacione os conceitos previdenciários e assistenciais às suas definições e lógicas de financiamento.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>["Previdência (Princípio da Seguridade)", "Assistência Social", "Sistema de Repartição Simples (SRS)"]</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>["Transferência direta de renda da população ativa para a inativa (benefício definido).", "Proteção contra riscos previsíveis de queda de renda (ex: velhice), exigindo contribuição prévia.", "Fundamentada na solidariedade, destinada a quem não alcança renda mínima, independente de contribuição."]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>{"0": "1", "1": "2", "2": "0"}</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>A previdência visa proteger contra riscos previsíveis e exige contribuição; a assistência baseia-se na solidariedade e não exige contribuição prévia; o SRS é a transferência direta dos ativos para os inativos no mesmo período.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Pág. 7, 8</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Relacione os efeitos da taxa de juros sobre as decisões de consumo e poupança.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>["Efeito Substituição", "Efeito Riqueza (Juros)", "Taxa de Desconto"]</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>["Reflete a preferência temporal do indivíduo pelo consumo presente em relação ao futuro.", "O aumento dos juros eleva a renda de quem possui ativos financeiros, podendo aumentar o consumo.", "Juros altos encarecem o consumo presente, estimulando a poupança em detrimento do gasto atual."]</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>{"0": "2", "1": "1", "2": "0"}</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>O efeito substituição ocorre quando juros altos tornam o consumo presente caro; o efeito riqueza ocorre quando juros altos aumentam a renda dos poupadores; a taxa de desconto mede a preferência pelo presente.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Pág. 4, 9</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Cap. 6 - Consumo</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Associe os conceitos financeiros e de riqueza aos seus impactos no consumo agregado.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>["Capital Humano", "Restrição ao Crédito", "Poupança Precaucionária"]</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>["Redução do consumo corrente decorrente de incertezas quanto à renda futura (ex: desemprego).", "Componente da riqueza baseado na expectativa de renda futura decorrente da qualificação.", "Situação em que o consumo é limitado pela renda corrente devido à impossibilidade de tomar empréstimos."]</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>{"0": "1", "1": "2", "2": "0"}</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Capital humano é a expectativa de renda futura baseada na qualificação; restrição ao crédito impede a antecipação de consumo, limitando-o à renda corrente; poupança precaucionária surge do medo ou incerteza sobre o futuro.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Pág 1, 2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Cap. 7 – Investimento</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Relacione os conceitos básicos de investimento e suas características.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>["Investimento (Econômico)", "Aplicação Financeira", "Volatilidade do Investimento"]</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>["Forma de alocação da poupança dos agentes no mercado financeiro.", "Costuma ser mais intensa que a do consumo, pois depende das expectativas futuras.", "Aquisição de bens de capital (máquinas, edifícios) para ampliar a capacidade produtiva."]</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>O investimento econômico é a ampliação da capacidade produtiva; aplicação financeira é alocação de poupança; e o investimento é mais volátil que o consumo devido às expectativas.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Pág 3</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Cap. 7 – Investimento</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Associe os conceitos da teoria keynesiana de investimento às suas definições.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>["Eficiência Marginal do Capital (EMgK)", "Preço de Demanda (PdI)", "Preço de Oferta (PoI)"]</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>["Custo atual de produção ou aquisição de uma nova máquina.", "Taxa de desconto que iguala o preço de demanda ao preço de oferta.", "Valor presente do fluxo de receitas esperadas do investimento."]</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>{"0": "1", "1": "2", "2": "0"}</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>A EMgK é a taxa que iguala PdI e PoI; PdI é o valor presente das receitas futuras; PoI é o custo da máquina (oferta).</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Cap. 7 – Investimento</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Correlacione as classificações do mercado financeiro às suas descrições.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>["Mercado Monetário", "Financiamento Indireto", "Instrumentos de Participação"]</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>["O 'doador' de recursos participa dos resultados do negócio (renda variável).", "Segmento onde se realizam operações de curto prazo.", "Utiliza um intermediário (banco) que assume o risco do empréstimo junto ao poupador."]</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>{"0": "1", "1": "2", "2": "0"}</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Mercado monetário foca no curto prazo; financiamento indireto ocorre via bancos (sistema de crédito); instrumentos de participação envolvem renda variável/sócios.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Cap. 7 – Investimento</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Relacione a teoria do investimento e o mercado de ações aos seus mecanismos.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>["Mercado Secundário", "q de Tobin &gt; 1", "Efeito das ações no crédito"]</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>["Sinaliza que é mais barato criar uma empresa nova do que comprar uma existente, estimulando o investimento.", "A queda no preço das ações reduz o valor das garantias e do patrimônio, retraindo empréstimos.", "Local onde se transfere a propriedade de títulos sem canalizar recursos novos para o emissor."]</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Mercado secundário apenas transfere propriedade; q de Tobin alto incentiva novos investimentos; valor das ações serve de garantia (colateral) para crédito.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Cap. 7 – Investimento</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Associe os modelos de sistema financeiro às suas características estruturais.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>["Modelo Americano", "Modelo Alemão", "Sistema Brasileiro (Histórico)"]</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>["Predomínio de bancos comerciais com passivos de curto prazo e restrições a bancos universais.", "Predomínio do mercado de capitais e investidores institucionais.", "Predomínio de 'bancos universais' que participam da administração das empresas."]</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>{"0": "1", "1": "2", "2": "0"}</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>O modelo americano foca no mercado de capitais; o alemão em bancos universais; o brasileiro é dominado por bancos comerciais de curto prazo.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Cap. 7 – Investimento</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Relacione os desafios e soluções do financiamento de longo prazo no Brasil.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>["Descasamento de Prazos", "BNDES", "Funding Público (FGTS/PIS)"]</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>["Instituição criada para suprir a falta de mecanismos privados de longo prazo.", "Fonte de poupança compulsória usada para garantir recursos estáveis para investimento.", "Risco gerado ao financiar projetos longos com passivos de curto prazo (depósitos à vista)."]</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>O descasamento ocorre ao usar depósitos à vista para empréstimos longos; o BNDES supre essa falha; o funding público (FGTS) proveu os recursos estáveis.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Pág. 2, 3</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Relacione as funções econômicas do governo às suas respectivas definições.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>["Função Alocativa", "Função Distributiva", "Função Estabilizadora"]</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>["Manejo da política econômica para garantir emprego, crescimento e estabilidade de preços.", "Correção de falhas de mercado (externalidades, bens públicos) para eficiência.", "Transferência de renda entre grupos ou regiões via impostos e gastos."]</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>{"0": "1", "1": "2", "2": "0"}</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>A função alocativa corrige falhas de mercado; a distributiva foca na repartição de renda; a estabilizadora visa o controle macroeconômico (emprego/inflação).</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Pág. 2</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Associe os tipos de falhas de mercado às suas características descritas no texto.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>["Bens Públicos", "Externalidades", "Monopólios Naturais"]</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>["Impactos de uma ação sobre terceiros não transacionados pelo sistema de preços (ex: poluição).", "Situação onde o aumento da produção reduz o custo médio, exigindo regulação estatal.", "Consumo não excludente e não rival; o mercado não revela o preço corretamente."]</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Bens públicos são não rivais/excludentes; externalidades afetam terceiros fora do sistema de preços; monopólios naturais surgem de economias de escala.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Pág. 4</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Correlacione as classificações dos gastos públicos com seus exemplos e definições.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>["Despesas Correntes", "Despesas de Capital", "Transferências"]</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>["Investimentos em infraestrutura, instalações e amortização da dívida.", "Pagamentos sem contrapartida de serviços, como benefícios previdenciários e juros.", "Gastos com pessoal, encargos e custeio da manutenção dos serviços públicos."]</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Despesas correntes cobrem custeio/pessoal; capital cobre investimentos; transferências são repasses sem contrapartida direta de bens/serviços.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Pág. 5, 6</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Relacione os conceitos tributários às suas definições de incidência e estrutura.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>["Sistema Progressivo", "Impostos Indiretos", "Impostos Diretos"]</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>["O ônus econômico é transferido para um terceiro, incidindo sobre o preço das transações.", "O ônus é suportado pelo contribuinte, incidindo sobre renda e propriedade.", "A participação dos impostos na renda aumenta conforme a renda do indivíduo aumenta."]</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Progressividade implica taxas maiores para rendas maiores; indiretos incidem sobre preços/consumo; diretos incidem sobre a renda/patrimônio do contribuinte.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Pág. 10, 11</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Associe os impostos e metodologias de cálculo às suas características específicas no Brasil.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>["ICMS", "IPI", "Cálculo 'por dentro'"]</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>["Metodologia onde o imposto é calculado sobre o valor final de venda, elevando a alíquota efetiva.", "Imposto estadual sobre circulação, cuja disputa entre estados gera a 'guerra fiscal'.", "Imposto federal sobre produtos industrializados, usado para política industrial."]</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>{"0": "1", "1": "2", "2": "0"}</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>O ICMS é estadual e sujeito à guerra fiscal; o IPI é federal e industrial; o cálculo 'por dentro' embute o imposto no preço final.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Pág. 18, 19</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Cap. 8 - Política Fiscal</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Relacione os conceitos de déficit e financiamento do setor público.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>["NFSP Conceito Nominal", "NFSP Conceito Primário", "Carga Tributária Líquida"]</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>["Diferença entre a carga tributária bruta e as transferências (juros, subsídios, previdência).", "Inclui o déficit primário somado ao pagamento de juros nominais da dívida.", "Engloba apenas receitas e despesas não financeiras, excluindo os juros da dívida."]</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>{"0": "1", "1": "2", "2": "0"}</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>O conceito nominal inclui juros (G-T+iB); o primário exclui juros (G-T); carga líquida desconta as transferências da arrecadação bruta.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Pág. 2, 3, 4</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Relacione as funções clássicas da moeda às suas definições conceituais.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>["Meio de troca", "Unidade de conta", "Reserva de valor"]</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>["Função que permite a mensuração da atividade econômica, servindo como denominador comum de valor.", "Capacidade de manter o poder de compra ao longo do tempo, dependendo da estabilidade de preços.", "Intermediário que elimina a necessidade de dupla coincidência de desejos nas transações."]</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>O meio de troca elimina a necessidade de dupla coincidência; a unidade de conta serve como referência de valor; a reserva de valor transfere poder de compra para o futuro.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Pág. 7, 8</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Associe os motivos da demanda por moeda (Keynes) aos seus determinantes principais.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>["Motivo Transação", "Motivo Precaução", "Motivo Especulação (Portfólio)"]</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>["Retenção de moeda aguardando o melhor momento para adquirir títulos, dependendo inversamente da taxa de juros.", "Demanda decorrente da defasagem entre recebimentos e pagamentos, dependendo diretamente da renda.", "Retenção de moeda para fazer frente a incertezas e infortúnios futuros."]</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>{"0": "1", "1": "2", "2": "0"}</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>O motivo transação depende da renda e dos gastos correntes; precaução foca na incerteza; especulação depende da taxa de juros (custo de oportunidade).</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Pág. 14, 15</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Correlacione os agregados monetários e conceitos de oferta de moeda.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>["Base Monetária", "M1 (Meios de Pagamento)", "Multiplicador Monetário"]</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>["Ativos com liquidez absoluta, composto por papel-moeda em poder do público e depósitos à vista.", "Relação que indica quanto os meios de pagamento variam a partir de uma variação na base monetária.", "Soma do papel-moeda em poder do público e das reservas bancárias (High Powered Money)."]</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>A base monetária é a moeda primária (PMPP + Reservas); M1 são os ativos de liquidez absoluta; o multiplicador explica a expansão dos meios de pagamento via bancos.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Pág. 19, 20, 21</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Relacione os instrumentos de política monetária aos seus mecanismos de funcionamento.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>["Reservas Compulsórias", "Taxa de Redesconto", "Open Market"]</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>["Compra e venda de títulos públicos pelo Banco Central para regular a liquidez diária.", "Parcela dos depósitos que os bancos devem recolher ao Bacen, afetando o multiplicador bancário.", "Custo dos empréstimos de assistência à liquidez concedidos pelo Bacen aos bancos."]</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>{"0": "1", "1": "2", "2": "0"}</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>As reservas compulsórias limitam a capacidade de empréstimo dos bancos; o redesconto é a taxa do empréstimo de liquidez; open market é a compra/venda de títulos.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Pág. 24, 25, 27</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Associe as teorias e regimes de taxa de juros às suas descrições.</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>["Teoria dos Fundos Emprestáveis", "Preferência pela Liquidez", "Regime de Metas de Inflação"]</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>["A taxa de juros é determinada pelo equilíbrio entre oferta e demanda de moeda, dada a renda.", "Sistema onde o Bacen utiliza a taxa de juros para atingir um objetivo explícito de variação de preços.", "A taxa de juros é o preço que equilibra a oferta de poupança e a demanda por investimento."]</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Fundos emprestáveis focam em poupança/investimento (fluxos reais); preferência pela liquidez foca no mercado monetário; metas de inflação usam os juros como instrumento principal.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Pág. 32, 33, 34</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Cap. 9 - Política Monetária</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Relacione os conceitos de taxas de juros e correção monetária.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>["Taxa de Juros Real", "Operações Pós-fixadas", "Taxa de Juros Nominal"]</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>["Modalidade onde se define o ganho real ex ante, mas a taxa nominal só é conhecida após a verificação da inflação.", "Ganho monetário da aplicação, sem descontar a perda inflacionária.", "Corresponde à taxa nominal descontada a taxa de inflação do período."]</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>A taxa real desconta a inflação; a nominal é o valor facial; pós-fixadas garantem o ganho real corrigindo o nominal pela inflação passada.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Pág 7, 8</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Relacione as contas do Balanço de Pagamentos aos seus respectivos componentes.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>["Balança Comercial", "Renda Primária", "Conta Financeira"]</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>["Registra os fluxos de ativos e passivos, como Investimentos Diretos e em Carteira.", "Registra exportações e importações de mercadorias (bens tangíveis).", "Engloba a remuneração de fatores, como juros, lucros, dividendos e salários."]</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>{"0": "1", "1": "2", "2": "0"}</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>A Balança Comercial trata de bens (mercadorias); a Renda Primária trata da remuneração de capital e trabalho (juros/lucros); a Conta Financeira trata dos fluxos de capital e investimentos.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Pág 17, 19</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Associe os regimes cambiais às suas características de funcionamento e intervenção.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>["Câmbio Fixo", "Câmbio Flutuante", "Flutuação Suja (Dirty Floating)"]</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>["O preço da moeda oscila livremente conforme oferta e demanda, sem meta de reservas.", "Regime onde o mercado atua, mas o Bacen intervém pontualmente para reduzir volatilidade.", "O Banco Central intervém comprando ou vendendo divisas para manter a taxa em um valor predeterminado."]</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>No câmbio fixo, o Bacen garante a paridade; no flutuante, o mercado define o preço; na flutuação suja, há intervenções pontuais do Bacen em um regime de mercado.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Pág 30, 31, 33</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Correlacione as teorias do comércio internacional aos seus principais autores e premissas.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>["David Ricardo (Vantagens Comparativas)", "Heckscher-Ohlin (Teoria Moderna)", "Raul Prebisch (Estruturalismo)"]</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>["Critica a divisão internacional do trabalho, apontando a deterioração dos termos de troca para países primário-exportadores.", "Baseia-se nas diferenças de produtividade do trabalho (tecnologia) entre países.", "Explica o comércio pela dotação relativa de fatores de produção (abundância de capital ou trabalho)."]</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>{"0": "1", "1": "2", "2": "0"}</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Ricardo foca na produtividade do trabalho; Heckscher-Ohlin na dotação de fatores (K e L); Prebisch critica o modelo clássico via deterioração dos termos de troca.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Pág 33, 35</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Relacione os conceitos e paradoxos da teoria do comércio internacional às suas definições.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>["Paradoxo de Leontieff", "Ciclo do Produto (Vernon)", "Comércio Intraindustrial"]</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>["Troca de produtos semelhantes entre países com dotação de recursos e demandas parecidas.", "Constatação empírica de que os EUA, ricos em capital, exportavam bens intensivos em trabalho.", "Explica a mudança do local de produção de bens inovadores para países menos desenvolvidos após padronização."]</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>{"0": "1", "1": "2", "2": "0"}</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Leontieff encontrou resultados opostos ao previsto por Heckscher-Ohlin; Vernon foca na inovação e padronização; comércio intraindustrial ocorre entre economias similares.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Pág 25, 27</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Cap.10 - Setor Externo</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Associe os determinantes da taxa de câmbio aos seus conceitos teóricos.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>["Paridade do Poder de Compra (PPC)", "Arbitragem de Juros (Curto Prazo)", "Ataque Especulativo"]</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>["Fluxo de capitais baseado no diferencial de juros interno e externo e na expectativa cambial.", "Saída massiva de recursos gerada pela desconfiança na manutenção do valor da moeda.", "Teoria de longo prazo onde a taxa de câmbio reflete a diferença entre as inflações interna e externa."]</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>A PPC relaciona câmbio e preços (inflação); a arbitragem busca ganho financeiro imediato via juros; ataque especulativo é a fuga de capitais por desconfiança.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Pág. 2, 4</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Relacione os períodos históricos às características da atuação estatal descritas no texto.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>["República Velha", "Estado Novo / Pós-1930", "Governos Militares"]</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>["Atuação como Estado produtor, regulamentador (CLT) e financiador da industrialização.", "Dinamização dos espaços de atuação com criação de grandes holdings e do BNH.", "Política de defesa do café e concessões com garantia de juros."]</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>A República Velha focou na defesa do café e garantia de juros; Pós-1930 marcou o início do Estado produtor e regulamentador; Governos Militares dinamizaram essas funções e criaram o BNH.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Pág. 4, 5</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Associe as formas de atuação do Estado no processo de industrialização às suas definições.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>["Estado Condutor", "Estado Regulamentador", "Estado Produtor"]</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>["Mediação de conflitos intercapitalistas e trabalhistas (criação da Justiça do Trabalho).", "Estatização de serviços públicos e produção de bens intermediários (ex: CSN, Vale).", "Uso de política cambial, tarifária e creditícia para promover a industrialização."]</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Estado Condutor usa política econômica; Regulamentador gere conflitos (trabalho/capital); Produtor atua diretamente na produção via estatais.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Pág. 8</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Correlacione os modelos de provisão de serviços públicos às suas características.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>["Modelo Norte-Americano", "Modelo Europeu", "Bens Públicos"]</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>["Bens caracterizados pela não rivalidade e não excludência no consumo.", "Empresas privadas regidas por regulação e controle estatal.", "Fornecimento de serviços por empresas públicas ou estatais, predominante no pós-guerra."]</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>{"0": "1", "1": "2", "2": "0"}</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>O modelo norte-americano baseia-se em empresas privadas reguladas; o europeu em estatais; bens públicos são não rivais/excludentes.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Pág. 15, 16</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Relacione as fases do processo de privatização no Brasil aos tipos de empresas vendidas.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>["Fase 1981-1989 (Reprivatização)", "Fase 1991-1994 (PND Inicial)", "Fase Pós-1995"]</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>["Foco em siderurgia, petroquímica e fertilizantes (ex: Usiminas).", "Inclusão de concessões de serviços públicos, bancos estaduais e telecomunicações.", "Venda de empresas que haviam sido estatizadas por estarem falidas."]</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Nos anos 80 houve reprivatização; o início do PND (Collor/Itamar) focou na indústria de base; pós-1995 focou em serviços públicos e telecom.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Pág. 13, 14</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Associe os argumentos a favor da privatização aos problemas identificados nas estatais.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>["Ineficiência Operacional", "Crise Fiscal", "Avanço Tecnológico"]</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>["Necessidade de receitas para abater a dívida e incapacidade de investimento estatal.", "Novas tecnologias permitem desmembramento de atividades e concorrência em setores antes monopolistas.", "Baixa qualidade dos serviços, deterioração física e ingerência política."]</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>{"0": "2", "1": "0", "2": "1"}</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>A ineficiência liga-se à baixa qualidade; a crise fiscal à falta de capacidade de investimento; o avanço tecnológico permite superar monopólios naturais.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
